--- a/kelompok4_spk_d4ti3b.xlsx
+++ b/kelompok4_spk_d4ti3b.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENTS\FILE KULIAH\SEMESTER VI\SISTEM PENDUKUNG KEPUTUSAN\TUGAS BESAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\dss_kurir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D2565F-45AD-4C40-9976-E693320BBCA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0961F343-2D82-40FB-91E2-13408ED299BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{E099619B-EEC8-4372-9EC3-325B50EA7724}"/>
   </bookViews>
@@ -433,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -454,9 +454,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,9 +469,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -483,6 +477,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -802,7 +805,7 @@
   <dimension ref="A2:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -834,19 +837,19 @@
         <v>61</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -995,7 +998,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="6">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="4">
@@ -1020,7 +1023,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="6">
-        <v>0.15</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="4">
@@ -1036,12 +1039,12 @@
         <v>30</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1051,7 +1054,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="6">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="F9" s="2"/>
       <c r="K9" s="2"/>
@@ -1076,15 +1079,15 @@
         <v>16</v>
       </c>
       <c r="C10" s="6">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="2"/>
       <c r="L10" s="4">
         <v>1</v>
@@ -1107,7 +1110,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="6">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3" t="s">
@@ -1144,7 +1147,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4">
@@ -1174,6 +1177,10 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="20">
+        <f>SUM(C7:C12)</f>
+        <v>0.99999999999999989</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="4">
         <v>2</v>
@@ -1207,19 +1214,19 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
@@ -1410,7 +1417,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1428,22 +1435,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1467,7 +1474,7 @@
       <c r="G3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>83</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1485,26 +1492,26 @@
         <v>86</v>
       </c>
       <c r="B4" s="4">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="C4" s="4">
-        <v>0.15</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D4" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="G4" s="4">
         <v>0.1</v>
       </c>
-      <c r="E4" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <f>SUM(B4:G4)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>1</v>
@@ -1517,25 +1524,25 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1602,7 +1609,7 @@
       <c r="G7" s="4">
         <v>4</v>
       </c>
-      <c r="L7" s="9"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1633,7 +1640,7 @@
         <v>13</v>
       </c>
       <c r="N8" s="6">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1665,7 +1672,7 @@
         <v>14</v>
       </c>
       <c r="N9" s="6">
-        <v>0.15</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1696,10 +1703,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="18"/>
       <c r="L10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1707,7 +1714,7 @@
         <v>15</v>
       </c>
       <c r="N10" s="6">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1740,7 +1747,7 @@
       </c>
       <c r="I11" s="5">
         <f>(B4*B11)+(C4*C11)+(D4*D11)+(E4*E11)+(F4*F11)+(G4*G11)</f>
-        <v>0.89999999999999991</v>
+        <v>0.82</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>61</v>
@@ -1752,11 +1759,11 @@
         <v>16</v>
       </c>
       <c r="N11" s="6">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="5">
         <f t="shared" ref="B12:G14" si="2">IF(B4="cost",MIN(B7:B10)/B7,B7/MAX(B7:B10))</f>
         <v>1</v>
@@ -1781,11 +1788,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="15">
         <f>(B4*B12)+(C4*C12)+(D4*D12)+(E4*E12)+(F4*F12)+(G4*G12)</f>
-        <v>0.96666666666666679</v>
-      </c>
-      <c r="J12" s="18" t="s">
+        <v>0.93</v>
+      </c>
+      <c r="J12" s="16" t="s">
         <v>62</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -1795,11 +1802,11 @@
         <v>17</v>
       </c>
       <c r="N12" s="6">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="5">
         <f t="shared" si="2"/>
         <v>0.6</v>
@@ -1826,7 +1833,7 @@
       </c>
       <c r="I13" s="5">
         <f>(B4*B13)+(C4*C13)+(D4*D13)+(E4*E13)+(F4*F13)+(G4*G13)</f>
-        <v>0.8600000000000001</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>63</v>
@@ -1838,11 +1845,11 @@
         <v>18</v>
       </c>
       <c r="N13" s="6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="5">
         <f t="shared" si="2"/>
         <v>0.6</v>
@@ -1869,7 +1876,7 @@
       </c>
       <c r="I14" s="5">
         <f>(B4*B14)+(C4*C14)+(D4*D14)+(E4*E14)+(F4*F14)+(G4*G14)</f>
-        <v>0.88666666666666671</v>
+        <v>0.84</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>64</v>
@@ -1903,30 +1910,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -1940,13 +1947,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>0</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -1955,18 +1962,18 @@
       <c r="E3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1975,144 +1982,144 @@
       <c r="E4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/kelompok4_spk_d4ti3b.xlsx
+++ b/kelompok4_spk_d4ti3b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\dss_kurir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0961F343-2D82-40FB-91E2-13408ED299BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09D6845-BEDA-41C3-BE75-A8A8AD615F64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{E099619B-EEC8-4372-9EC3-325B50EA7724}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="86">
   <si>
     <t>A1</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>Pembobotan Kriteria C2</t>
-  </si>
-  <si>
-    <t>Cakupan</t>
   </si>
   <si>
     <t>Domestik</t>
@@ -478,14 +475,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -805,7 +802,7 @@
   <dimension ref="A2:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -834,22 +831,22 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="G2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="L2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -859,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
@@ -879,7 +876,7 @@
         <v>19</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>20</v>
@@ -896,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="4">
@@ -916,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N4" s="4">
         <v>3</v>
@@ -930,10 +927,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="4">
@@ -953,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N5" s="4">
         <v>2</v>
@@ -981,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N6" s="4">
         <v>1</v>
@@ -1039,12 +1036,12 @@
         <v>30</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
+      <c r="L8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1062,7 +1059,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>20</v>
@@ -1082,18 +1079,18 @@
         <v>0.21</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="2"/>
       <c r="L10" s="4">
         <v>1</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N10" s="4">
         <v>4</v>
@@ -1117,7 +1114,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>20</v>
@@ -1130,7 +1127,7 @@
         <v>2</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N11" s="4">
         <v>3</v>
@@ -1154,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="4">
         <v>1</v>
@@ -1167,7 +1164,7 @@
         <v>3</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N12" s="4">
         <v>2</v>
@@ -1177,7 +1174,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="20">
+      <c r="C13" s="18">
         <f>SUM(C7:C12)</f>
         <v>0.99999999999999989</v>
       </c>
@@ -1186,7 +1183,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="4">
         <v>2</v>
@@ -1199,7 +1196,7 @@
         <v>4</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N13" s="4">
         <v>1</v>
@@ -1214,19 +1211,19 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
-      <c r="G15" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="G15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
+      <c r="L15" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
@@ -1234,7 +1231,7 @@
         <v>19</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>20</v>
@@ -1247,7 +1244,7 @@
         <v>19</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>20</v>
@@ -1262,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="4">
         <v>5</v>
@@ -1275,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N17" s="4">
         <v>4</v>
@@ -1290,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18" s="4">
         <v>4</v>
@@ -1303,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N18" s="4">
         <v>3</v>
@@ -1318,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="4">
         <v>3</v>
@@ -1331,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N19" s="4">
         <v>2</v>
@@ -1346,7 +1343,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="4">
         <v>2</v>
@@ -1359,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N20" s="4">
         <v>1</v>
@@ -1374,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
@@ -1417,7 +1414,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="A5" sqref="A5:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1435,47 +1432,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>0</v>
@@ -1484,12 +1481,12 @@
         <v>5</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="4">
         <v>0.16</v>
@@ -1520,12 +1517,12 @@
         <v>4</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>7</v>
@@ -1552,7 +1549,7 @@
         <v>6</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1581,10 +1578,10 @@
         <v>3</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1677,7 +1674,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
         <f>IF(B3="cost",MIN(B6:B9),MAX(B6:B9))</f>
@@ -1703,10 +1700,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="18"/>
+      <c r="I10" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="19"/>
       <c r="L10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1719,7 +1716,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
         <f>IF(B3="cost",MIN(B6:B9)/B6,B6/MAX(B6:B9))</f>
@@ -1750,7 +1747,7 @@
         <v>0.82</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>10</v>
@@ -1793,7 +1790,7 @@
         <v>0.93</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>11</v>
@@ -1836,7 +1833,7 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>12</v>
@@ -1879,7 +1876,7 @@
         <v>0.84</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1911,19 +1908,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1931,16 +1928,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1951,16 +1948,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="12">
         <v>0</v>
@@ -1971,16 +1968,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="9">
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="12">
         <v>0</v>
